--- a/Testy manualne _hours_ago=72.xlsx
+++ b/Testy manualne _hours_ago=72.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Documents\GitHub\Testy-manualne-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56423376-C865-49F8-8E8E-D606527D943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DAE1BC-AFF9-4675-93FB-D004F45CA11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testy - parametr hours ago" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>?aggregation_type=sum / avg / none &amp;?aggregation_timeframe=day / month / year / none</t>
-  </si>
-  <si>
-    <t>URL https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly?hours_ago=72</t>
   </si>
   <si>
     <t>Podaje prawidłową wartość w zakresie 72h w przypadku parametru sumy z 72h razem z parametrem day/month/year</t>
@@ -163,6 +160,9 @@
       </rPr>
       <t>; 1000+</t>
     </r>
+  </si>
+  <si>
+    <t>URL https:/xxxx</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>12</v>
@@ -950,7 +950,7 @@
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>16</v>
@@ -961,10 +961,10 @@
     <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="11"/>
@@ -983,10 +983,10 @@
     <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="11"/>
@@ -994,10 +994,10 @@
     <row r="8" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -1005,10 +1005,10 @@
     <row r="9" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="11"/>
@@ -1016,10 +1016,10 @@
     <row r="10" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="11"/>
@@ -1027,10 +1027,10 @@
     <row r="11" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="19"/>
@@ -1040,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11"/>
@@ -1053,23 +1053,23 @@
         <v>5</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -1163,6 +1163,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E56EFCA745FE94FBF53B2C62A06EEA2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24f1fdeed76507570bdfc2d587002185">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1977f881-4a7d-460e-90f9-4ad6b28a4ae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27ee33ac990fb723ae04e34d461bc1cb" ns3:_="">
     <xsd:import namespace="1977f881-4a7d-460e-90f9-4ad6b28a4ae6"/>
@@ -1294,22 +1309,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D67EECF7-28B1-48A5-BAA3-DF5192651397}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1977f881-4a7d-460e-90f9-4ad6b28a4ae6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDB6348-5F80-458B-A589-ACBD8D673237}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C15D541-CCF5-4DD1-8486-F6E447B1A9C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1325,28 +1349,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDB6348-5F80-458B-A589-ACBD8D673237}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D67EECF7-28B1-48A5-BAA3-DF5192651397}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1977f881-4a7d-460e-90f9-4ad6b28a4ae6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testy manualne _hours_ago=72.xlsx
+++ b/Testy manualne _hours_ago=72.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Documents\GitHub\Testy-manualne-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DAE1BC-AFF9-4675-93FB-D004F45CA11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067DF2C-B88F-4E7D-91F0-07B549CA20E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testy - parametr hours ago" sheetId="1" r:id="rId1"/>
@@ -93,28 +93,13 @@
     <t>Podaje prawidłową wartość w zakresie 72h w przypadku parametru sumy z 72h razem z parametrem day/month/year</t>
   </si>
   <si>
-    <t>energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly?hours_ago=72&amp;aggregation_type=sum&amp;aggregation_timeframe=day/month/year</t>
-  </si>
-  <si>
-    <t>energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly?hours_ago=72&amp;aggregation_type=sum&amp;aggregation_timeframe=day/month/none</t>
-  </si>
-  <si>
     <t>Pojawia się komunikat "Incorrect aggregations parameters, only pair of values: aggregation_timeframe and aggregation_type is accepted"</t>
   </si>
   <si>
-    <t>energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly?hours_ago=72&amp;aggregation_type=avg&amp;aggregation_timeframe=day/month/year</t>
-  </si>
-  <si>
     <t>Podaje prawidłową wartość w zakresie 72h w przypadku parametru średniej z 72h razem z parametrem day/month/year</t>
   </si>
   <si>
-    <t>energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly?hours_ago=72&amp;aggregation_type=none&amp;aggregation_timeframe=none</t>
-  </si>
-  <si>
     <t>Podaje prawidłowe wartości z zakresu 72h</t>
-  </si>
-  <si>
-    <t>energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly?hours_ago=72&amp;aggregation_type=none&amp;aggregation_timeframe=day/month/year</t>
   </si>
   <si>
     <t>?aggregation_type=sum / avg / none &amp;?aggregation_timeframe=day / month / year / none &amp; limit=xxx</t>
@@ -163,6 +148,21 @@
   </si>
   <si>
     <t>URL https:/xxxx</t>
+  </si>
+  <si>
+    <t>xxxn_hourly?hours_ago=72&amp;aggregation_type=sum&amp;aggregation_timeframe=day/month/year</t>
+  </si>
+  <si>
+    <t>xxxxn_hourly?hours_ago=72&amp;aggregation_type=sum&amp;aggregation_timeframe=day/month/none</t>
+  </si>
+  <si>
+    <t>xxxx_hourly?hours_ago=72&amp;aggregation_type=avg&amp;aggregation_timeframe=day/month/year</t>
+  </si>
+  <si>
+    <t>xxx_hourly?hours_ago=72&amp;aggregation_type=none&amp;aggregation_timeframe=none</t>
+  </si>
+  <si>
+    <t>xxxn_hourly?hours_ago=72&amp;aggregation_type=none&amp;aggregation_timeframe=day/month/year</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>12</v>
@@ -950,7 +950,7 @@
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>16</v>
@@ -961,10 +961,10 @@
     <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="11"/>
@@ -980,10 +980,10 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="31" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
@@ -991,46 +991,46 @@
       <c r="D7" s="18"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="19"/>
@@ -1040,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11"/>
@@ -1053,23 +1053,23 @@
         <v>5</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -1169,15 +1169,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E56EFCA745FE94FBF53B2C62A06EEA2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24f1fdeed76507570bdfc2d587002185">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1977f881-4a7d-460e-90f9-4ad6b28a4ae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27ee33ac990fb723ae04e34d461bc1cb" ns3:_="">
     <xsd:import namespace="1977f881-4a7d-460e-90f9-4ad6b28a4ae6"/>
@@ -1309,6 +1300,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D67EECF7-28B1-48A5-BAA3-DF5192651397}">
   <ds:schemaRefs>
@@ -1326,14 +1326,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDB6348-5F80-458B-A589-ACBD8D673237}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C15D541-CCF5-4DD1-8486-F6E447B1A9C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1349,4 +1341,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDB6348-5F80-458B-A589-ACBD8D673237}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>